--- a/Parameters_OLAProject.xlsx
+++ b/Parameters_OLAProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandromoneta/Desktop/Politecnico/CORSI/3. Online Learning Applications/Project/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5AF7EF-983A-7F47-AE2B-8F1AD4CBFA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112BC6A7-04D2-E249-887B-114FDF6EAE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="15540" xr2:uid="{2AE6296C-A5CF-5E41-B250-5A638F041B33}"/>
   </bookViews>
@@ -836,7 +836,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -881,7 +881,7 @@
         <v>9.5</v>
       </c>
       <c r="E2" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F2" s="19">
         <v>2.75</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="J2" s="12">
         <f t="shared" si="0"/>
-        <v>17.25</v>
+        <v>8.25</v>
       </c>
       <c r="M2" s="9"/>
     </row>
